--- a/public/templates/assists.xlsx
+++ b/public/templates/assists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\projects\eda\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5F78A9-7F41-4AFA-9F66-ED3D54D55B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F570F24-F932-4C5B-88D2-295423683CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF595308-AD4D-4EE2-AEBB-2D431F6BA762}"/>
   </bookViews>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -158,15 +158,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1F17C5-4716-4A37-94DD-415D48109B12}">
-  <dimension ref="B3:Q15"/>
+  <dimension ref="B3:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,218 +559,20 @@
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/assists.xlsx
+++ b/public/templates/assists.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\projects\eda\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F570F24-F932-4C5B-88D2-295423683CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BBD6A6-B72A-4082-9029-1072C001AFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF595308-AD4D-4EE2-AEBB-2D431F6BA762}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,12 +501,16 @@
   <dimension ref="B3:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="15.75">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>

--- a/public/templates/assists.xlsx
+++ b/public/templates/assists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\projects\eda\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BBD6A6-B72A-4082-9029-1072C001AFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01C2D7-272D-46B0-AFD5-B00B7D8C1EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF595308-AD4D-4EE2-AEBB-2D431F6BA762}"/>
   </bookViews>
@@ -90,7 +90,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -164,6 +167,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,17 +511,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1F17C5-4716-4A37-94DD-415D48109B12}">
   <dimension ref="B3:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="11" max="15" width="9.140625" style="9"/>
     <col min="16" max="16" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="15.75">
+    <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,19 +551,19 @@
       <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -560,7 +573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -570,11 +583,11 @@
       <c r="H4" s="5"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>

--- a/public/templates/assists.xlsx
+++ b/public/templates/assists.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\projects\eda\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\dev\lapontificia\pontiapp-laravel\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01C2D7-272D-46B0-AFD5-B00B7D8C1EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A27083-75B5-4E85-A670-5407CE557627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF595308-AD4D-4EE2-AEBB-2D431F6BA762}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>N°</t>
   </si>
@@ -44,27 +44,12 @@
     <t>DNI</t>
   </si>
   <si>
-    <t>Nombres y Apellidos</t>
-  </si>
-  <si>
     <t>Cargo</t>
   </si>
   <si>
-    <t>Puesto</t>
-  </si>
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Turno</t>
-  </si>
-  <si>
     <t>Entrada</t>
   </si>
   <si>
@@ -77,13 +62,22 @@
     <t>Salió</t>
   </si>
   <si>
-    <t>Diferencia</t>
-  </si>
-  <si>
-    <t>Terminal</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
+    <t>Apellidos y Nombres</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Asistencia</t>
+  </si>
+  <si>
+    <t>Terminal biometrico</t>
+  </si>
+  <si>
+    <t>Día</t>
   </si>
 </sst>
 </file>
@@ -102,7 +96,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
@@ -110,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +113,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -150,31 +161,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,89 +531,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1F17C5-4716-4A37-94DD-415D48109B12}">
-  <dimension ref="B3:Q4"/>
+  <dimension ref="B2:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
-    <col min="11" max="15" width="9.140625" style="9"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="23.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="H2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/templates/assists.xlsx
+++ b/public/templates/assists.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\dev\lapontificia\pontiapp-laravel\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A27083-75B5-4E85-A670-5407CE557627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85A4A46-4C93-4750-9FAA-557E468BE384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF595308-AD4D-4EE2-AEBB-2D431F6BA762}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F752C497-E709-41CD-8527-6E604C72730E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Asistencias" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,48 +36,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>TARDANZAS</t>
+  </si>
   <si>
     <t>N°</t>
   </si>
   <si>
+    <t>SEDE</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>APELLIDOS Y NOMBRES</t>
+  </si>
+  <si>
+    <t>ÁREA</t>
+  </si>
+  <si>
+    <t>TARDANZA PM</t>
+  </si>
+  <si>
+    <t>TOTAL TARDANZA</t>
+  </si>
+  <si>
+    <t>HORARIOS</t>
+  </si>
+  <si>
+    <t>INGRESO AM.</t>
+  </si>
+  <si>
+    <t>INGRESO PM.</t>
+  </si>
+  <si>
+    <t>SALIDA AM.</t>
+  </si>
+  <si>
+    <t>SALIDA PM.</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS</t>
+  </si>
+  <si>
+    <t>TARDANZA AM.</t>
+  </si>
+  <si>
+    <t>INGRESO AM +  TOLE.</t>
+  </si>
+  <si>
+    <t>INGRESO PM +  TOLE.</t>
+  </si>
+  <si>
     <t>DNI</t>
   </si>
   <si>
-    <t>Cargo</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Entrada</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Entró</t>
-  </si>
-  <si>
-    <t>Salió</t>
-  </si>
-  <si>
-    <t>Apellidos y Nombres</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Horario</t>
-  </si>
-  <si>
-    <t>Asistencia</t>
-  </si>
-  <si>
-    <t>Terminal biometrico</t>
-  </si>
-  <si>
-    <t>Día</t>
+    <t>PUESTO</t>
   </si>
 </sst>
 </file>
@@ -85,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +115,25 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,7 +142,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -123,21 +166,59 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -149,54 +230,71 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,99 +628,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1F17C5-4716-4A37-94DD-415D48109B12}">
-  <dimension ref="B2:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59CA595-70AE-4E56-95E8-66BB6E64CB8C}">
+  <dimension ref="A2:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="23.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="20.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="14" customWidth="1"/>
+    <col min="6" max="7" width="39.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10" style="14" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="10" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="15" style="14" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H2" s="11" t="s">
+    <row r="2" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="12"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18"/>
+      <c r="U2" s="19"/>
+    </row>
+    <row r="3" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10" t="s">
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="M3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="H2:K2"/>
+  <mergeCells count="3">
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/templates/assists.xlsx
+++ b/public/templates/assists.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\dev\lapontificia\pontiapp-laravel\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85A4A46-4C93-4750-9FAA-557E468BE384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55D3F4-0445-421B-8853-D2E79EFDA594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F752C497-E709-41CD-8527-6E604C72730E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Asistencias" sheetId="14" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Asistencias!$A$3:$AB$3</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+  <si>
+    <t>HORARIO SEGÚN LISTA</t>
+  </si>
+  <si>
+    <t>HORARIO BIOMETRICO</t>
+  </si>
+  <si>
+    <t>PAPELETA MISION DE SERVICIO
+PERMISO PERSONAL
+PERMISO POR SALUD</t>
+  </si>
   <si>
     <t>TARDANZAS</t>
   </si>
@@ -44,12 +58,6 @@
     <t>N°</t>
   </si>
   <si>
-    <t>SEDE</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
     <t>FECHA</t>
   </si>
   <si>
@@ -59,43 +67,55 @@
     <t>ÁREA</t>
   </si>
   <si>
+    <t>INGRESO OFICIAL AM.</t>
+  </si>
+  <si>
+    <t>TOLERANCIA AM</t>
+  </si>
+  <si>
+    <t>SALIDA</t>
+  </si>
+  <si>
+    <t>INGRESO OFICIAL PM.</t>
+  </si>
+  <si>
+    <t>TOLERANCIA PM</t>
+  </si>
+  <si>
+    <t>INGRESO LISTA  AM.</t>
+  </si>
+  <si>
+    <t>INGRESO LISTA  PM.</t>
+  </si>
+  <si>
+    <t>INGRESO BIOMETRICO AM.</t>
+  </si>
+  <si>
+    <t>INGRESO BIOMETRICO PM.</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NRO DE DÍAS DE FALTA (DSCTO)</t>
+  </si>
+  <si>
+    <t>NRO DE DÍAS TRABAJOS ADICIONALES (ADICIONAR)</t>
+  </si>
+  <si>
+    <t>TARDANZA AM</t>
+  </si>
+  <si>
     <t>TARDANZA PM</t>
   </si>
   <si>
     <t>TOTAL TARDANZA</t>
   </si>
   <si>
-    <t>HORARIOS</t>
-  </si>
-  <si>
-    <t>INGRESO AM.</t>
-  </si>
-  <si>
-    <t>INGRESO PM.</t>
-  </si>
-  <si>
-    <t>SALIDA AM.</t>
-  </si>
-  <si>
-    <t>SALIDA PM.</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS</t>
-  </si>
-  <si>
-    <t>TARDANZA AM.</t>
-  </si>
-  <si>
-    <t>INGRESO AM +  TOLE.</t>
-  </si>
-  <si>
-    <t>INGRESO PM +  TOLE.</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>PUESTO</t>
+    <t>HORARIO OFICIAL</t>
   </si>
 </sst>
 </file>
@@ -103,13 +123,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,6 +138,97 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -125,15 +236,24 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,7 +274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,18 +286,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,32 +312,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -219,88 +344,182 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBF95DF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -313,9 +532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,39 +542,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -407,7 +626,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -459,7 +678,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,6 +737,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -526,13 +752,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -597,165 +816,183 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59CA595-70AE-4E56-95E8-66BB6E64CB8C}">
-  <dimension ref="A2:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="20.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="14" customWidth="1"/>
-    <col min="6" max="7" width="39.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="10" style="14" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="10" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="10" customWidth="1"/>
-    <col min="19" max="20" width="13.140625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="15" style="14" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="14" customWidth="1"/>
+    <col min="8" max="9" width="12" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="14" customWidth="1"/>
+    <col min="13" max="15" width="15.42578125" style="14" customWidth="1"/>
+    <col min="16" max="18" width="13" style="14" customWidth="1"/>
+    <col min="19" max="19" width="41.7109375" style="14" customWidth="1"/>
+    <col min="20" max="20" width="24" style="17" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="12"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="15" t="s">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:25" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="30"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17" t="s">
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="N3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="U3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>8</v>
+      <c r="V3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I2:N2"/>
+  <autoFilter ref="A3:AB3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:Y3">
+      <sortCondition ref="C3"/>
+    </sortState>
+  </autoFilter>
+  <dataConsolidate>
+    <dataRefs count="1">
+      <dataRef ref="C4:E4" sheet="3" r:id="rId1"/>
+    </dataRefs>
+  </dataConsolidate>
+  <mergeCells count="5">
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Y2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/templates/assists.xlsx
+++ b/public/templates/assists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\dev\lapontificia\pontiapp-laravel\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1377B716-C3F5-4923-BE32-64EE0EF911A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6436894E-FDCA-4A23-A495-4073E858CEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ALAMEDA" sheetId="14" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALAMEDA!$A$3:$AB$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALAMEDA!$A$3:$AC$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>HORARIO SEGÚN LISTA</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>HORARIO OFICIAL</t>
+  </si>
+  <si>
+    <t>SEDE</t>
   </si>
 </sst>
 </file>
@@ -123,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,14 +192,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="17"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -250,6 +245,21 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -415,23 +425,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -444,13 +451,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,16 +469,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,6 +516,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -835,167 +851,171 @@
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="15" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="14" customWidth="1"/>
-    <col min="8" max="9" width="12" style="14" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="14" customWidth="1"/>
-    <col min="13" max="15" width="15.42578125" style="14" customWidth="1"/>
-    <col min="16" max="18" width="13" style="14" customWidth="1"/>
-    <col min="19" max="19" width="41.7109375" style="14" customWidth="1"/>
-    <col min="20" max="20" width="24" style="17" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="8" style="14" customWidth="1"/>
+    <col min="2" max="3" width="41.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="13" customWidth="1"/>
+    <col min="9" max="10" width="12" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="13" customWidth="1"/>
+    <col min="14" max="16" width="15.42578125" style="13" customWidth="1"/>
+    <col min="17" max="19" width="13" style="13" customWidth="1"/>
+    <col min="20" max="20" width="41.7109375" style="13" customWidth="1"/>
+    <col min="21" max="21" width="24" style="16" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:25" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:26" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="23" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="29" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="31"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="30"/>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="U3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="W3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W4" s="19">
-        <f>IF(O4-F4&gt;0,O4-F4,0)</f>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="18">
+        <f>IF(P4-G4&gt;0,P4-G4,0)</f>
         <v>0</v>
       </c>
-      <c r="X4" s="19">
-        <f>IF(Q4-I4&gt;0,Q4-I4,0)</f>
+      <c r="Y4" s="18">
+        <f>IF(R4-J4&gt;0,R4-J4,0)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="19">
-        <f>+W4+X4</f>
+      <c r="Z4" s="18">
+        <f>+X4+Y4</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AB3" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Y4">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A3:AC3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z4">
+      <sortCondition ref="D3"/>
     </sortState>
   </autoFilter>
   <dataConsolidate>
@@ -1004,11 +1024,11 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="5">
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:Z2"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId2"/>
